--- a/服务订阅信息/服务单价模板(2).xlsx
+++ b/服务订阅信息/服务单价模板(2).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="155">
   <si>
     <t>客户代码</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>标准化数据同步</t>
+  </si>
+  <si>
+    <t>po9685666</t>
   </si>
   <si>
     <t>0012</t>
@@ -483,11 +486,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="000000"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -518,35 +521,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -564,52 +538,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -623,9 +552,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,6 +605,58 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -664,6 +667,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -683,168 +848,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,11 +900,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,36 +926,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,16 +949,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,133 +991,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1458,10 +1461,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1664,7 +1667,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>3161</v>
       </c>
@@ -1682,6 +1685,9 @@
       </c>
       <c r="I11" t="s">
         <v>39</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="3:9">
@@ -1692,10 +1698,10 @@
         <v>16</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1703,19 +1709,19 @@
         <v>3225</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1723,7 +1729,7 @@
         <v>3230</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>8</v>
@@ -1732,10 +1738,10 @@
         <v>9</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1743,16 +1749,16 @@
         <v>3243</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1760,19 +1766,19 @@
         <v>2505</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="3:9">
@@ -1780,41 +1786,41 @@
         <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="3:9">
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="3:9">
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1822,19 +1828,19 @@
         <v>3276</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1842,7 +1848,7 @@
         <v>3283</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>8</v>
@@ -1851,10 +1857,10 @@
         <v>16</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1862,19 +1868,19 @@
         <v>3305</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="3:9">
@@ -1882,13 +1888,13 @@
         <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>8</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1896,19 +1902,19 @@
         <v>3308</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="3:9">
@@ -1916,27 +1922,27 @@
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="3:9">
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1944,19 +1950,19 @@
         <v>3298</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="3:9">
@@ -1965,10 +1971,10 @@
       </c>
       <c r="E28" s="1"/>
       <c r="H28" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1976,7 +1982,7 @@
         <v>3304</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>8</v>
@@ -1985,25 +1991,25 @@
         <v>32</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="1"/>
       <c r="H30" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2011,20 +2017,20 @@
         <v>3310</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="8"/>
       <c r="H31" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2032,17 +2038,17 @@
         <v>3328</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="8"/>
       <c r="H32" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I32" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="3:9">
@@ -2056,30 +2062,30 @@
         <v>1</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2087,17 +2093,17 @@
         <v>3345</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E35" s="1"/>
       <c r="H35" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2108,46 +2114,46 @@
         <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="1"/>
       <c r="H36" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E37" s="8"/>
       <c r="H37" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2155,17 +2161,17 @@
         <v>3350</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E39" s="1"/>
       <c r="H39" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2176,19 +2182,19 @@
         <v>8</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E40" s="1"/>
       <c r="H40" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I40" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>12</v>
@@ -2200,25 +2206,25 @@
         <v>1</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="3:9">
       <c r="C42" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E42" s="1"/>
       <c r="H42" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I42" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2226,37 +2232,37 @@
         <v>3281</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E43" s="1">
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="3:9">
       <c r="C44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E44" s="1"/>
       <c r="H44" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I44" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2264,25 +2270,25 @@
         <v>3370</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E45" s="1"/>
       <c r="H45" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="8:9">
       <c r="H46" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="8:9">
@@ -2290,7 +2296,7 @@
         <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2298,90 +2304,90 @@
         <v>3383</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="8:9">
       <c r="H49" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I49" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="8:9">
       <c r="H50" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I50" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="8:9">
       <c r="H51" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="8:9">
       <c r="H52" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I52" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="8:9">
       <c r="H53" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="8:9">
       <c r="H54" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I54" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="8:9">
       <c r="H55" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I55" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="8:9">
       <c r="H56" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I56" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="8:9">
       <c r="H57" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="8:9">
       <c r="H58" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
